--- a/生活委员事宜/值日排班表.xlsx
+++ b/生活委员事宜/值日排班表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19660"/>
+    <workbookView xWindow="10800" yWindow="1700" windowWidth="38400" windowHeight="19660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邬昕昱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曾耀沛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,6 +469,10 @@
   </si>
   <si>
     <t>邹琪珺（组长）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邬昕昱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,12 +589,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -609,6 +603,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -891,7 +891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -916,344 +918,344 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>56</v>
+      <c r="C11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
+      <c r="A14" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>57</v>
+      <c r="C15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
+      <c r="A18" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>58</v>
+      <c r="C19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>29</v>
+      <c r="A21" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="15"/>
+      <c r="C22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="13"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>30</v>
+      <c r="A25" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="15"/>
+        <v>41</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="15"/>
+      <c r="C26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="13"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>31</v>
+      <c r="A29" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/生活委员事宜/值日排班表.xlsx
+++ b/生活委员事宜/值日排班表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="1700" windowWidth="38400" windowHeight="19660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,12 +510,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -582,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -608,6 +614,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -921,7 +930,7 @@
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="6"/>
@@ -930,7 +939,7 @@
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -945,7 +954,7 @@
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="8"/>
@@ -954,7 +963,7 @@
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5"/>
@@ -965,7 +974,7 @@
       <c r="A6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="6"/>
@@ -974,7 +983,7 @@
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -989,7 +998,7 @@
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="13"/>
@@ -998,7 +1007,7 @@
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5"/>
@@ -1009,7 +1018,7 @@
       <c r="A10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="15"/>
@@ -1018,7 +1027,7 @@
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -1033,7 +1042,7 @@
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="16"/>
@@ -1053,7 +1062,7 @@
       <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="15"/>
@@ -1077,7 +1086,7 @@
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="16"/>
@@ -1107,7 +1116,7 @@
     </row>
     <row r="19" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -1123,7 +1132,7 @@
     </row>
     <row r="20" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="17"/>
@@ -1136,7 +1145,7 @@
       <c r="A21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="15"/>
@@ -1146,7 +1155,7 @@
     </row>
     <row r="22" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -1160,7 +1169,7 @@
     </row>
     <row r="23" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="16"/>
@@ -1170,7 +1179,7 @@
     </row>
     <row r="24" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="17"/>
@@ -1182,7 +1191,7 @@
       <c r="A25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="4"/>
@@ -1192,7 +1201,7 @@
     </row>
     <row r="26" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -1216,7 +1225,7 @@
     </row>
     <row r="28" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="14"/>
@@ -1228,7 +1237,7 @@
       <c r="A29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="4"/>
@@ -1237,7 +1246,7 @@
     </row>
     <row r="30" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="13" t="s">
